--- a/pythonProject1/test1.xlsx
+++ b/pythonProject1/test1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\硕士期间\光纤传感\数据\pythonProject1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\硕士期间\光纤传感\数据\gittry\pythonProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E67D72-4B47-4432-B2C7-65F679445FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA480B1D-CA47-4A12-ACAF-F12A60F6CF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32835" yWindow="60" windowWidth="23355" windowHeight="9075" xr2:uid="{DE7671C1-B88E-451F-925E-2279D28B032B}"/>
   </bookViews>

--- a/pythonProject1/test1.xlsx
+++ b/pythonProject1/test1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\硕士期间\光纤传感\数据\gittry\pythonProject1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\硕士期间\光纤传感\数据\pythonProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA480B1D-CA47-4A12-ACAF-F12A60F6CF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB8A9AF-55D3-4BA8-8585-68B146BD1360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32835" yWindow="60" windowWidth="23355" windowHeight="9075" xr2:uid="{DE7671C1-B88E-451F-925E-2279D28B032B}"/>
   </bookViews>
